--- a/학습자료/단답형/국어_복습_사자성어.xlsx
+++ b/학습자료/단답형/국어_복습_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
-남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
+          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+          <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
+          <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+          <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+          <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -877,17 +877,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>손쉽다(합성어/파생어)</t>
+          <t>吳越同舟</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 합성어</t>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -899,17 +900,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>시름없다(합성어/파생어)</t>
+          <t>蚌鷸之爭</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 합성어</t>
+          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -921,17 +922,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>남다르다(합성어/파생어)</t>
+          <t>羊頭狗肉</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 합성어</t>
+          <t>양두구육, 
+1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
+2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3) 겉과 속이 서로 다름</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -943,17 +947,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>기와집(합성어/파생어)</t>
+          <t>綿裏藏針</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 합성어</t>
+          <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -965,17 +969,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>치솟다(합성어/파생어)</t>
+          <t>後生可畏</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -987,17 +991,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>고무신(합성어/파생어)</t>
+          <t>不問曲直</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 합성어</t>
+          <t xml:space="preserve">불문곡직, 
+1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
+2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
+3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1009,422 +1016,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>놀이(합성어/파생어)</t>
+          <t>道聽塗說</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>도청도설, 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
+2) 거리에서 들은 것을 남에게 아는 체하며 말함 
+3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>마침내(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>봄내(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>여름내(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>저녁내(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>들장미(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>들국화(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>끄덕이다(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>망설이다(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>반짝이다(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>한껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>힘껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>눈치껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>정성껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>성의껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>지금껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>아직껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>여태껏(합성어/파생어)</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 파생어</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>吳越同舟</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>오월동주,
-1.
-「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다.」는 뜻으로,
-2.
-어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨.
-3.
-뜻이 전혀 다른 사람들이 한자리에 있게 됨.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>

--- a/학습자료/단답형/국어_복습_사자성어.xlsx
+++ b/학습자료/단답형/국어_복습_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,28 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>大馬不死</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_사자성어.xlsx
+++ b/학습자료/단답형/국어_복습_사자성어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,55 +877,612 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>富貴功名</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>부귀공명</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>全力投球</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>전력투구</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>兎死狗烹</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>토사구팽</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>捲土重來</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>권토중래</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>手不釋卷</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>수불석권</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>我田引水</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>아전인수</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>對症療法</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>대증요법</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>和而不同</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>一絲不亂</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>穀腹絲身</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>牛耳讀經</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>經國之士</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>漢江投石</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>麥秀之歎</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>風樹之歎</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>亡羊之歎/望洋之歎</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2) 방침(方針)이 많아 할 바를 모르게 됨</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>晩時之歎</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>髀肉之嘆</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>비육지탄, 
+1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>切齒腐心</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>事必歸正</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>風木之悲</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>辟邪進慶</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>牽強附會</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>隱忍自重</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>吳越同舟</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
 2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>囊中之錐</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>蚌鷸之爭</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>羊頭狗肉</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>양두구육, 
 1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
@@ -933,68 +1490,68 @@
 3) 겉과 속이 서로 다름</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>綿裏藏針</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>後生可畏</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>不問曲直</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">불문곡직, 
 1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
@@ -1002,24 +1559,24 @@
 3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>道聽塗說</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>도청도설, 
 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
@@ -1027,34 +1584,100 @@
 3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>大馬不死</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>苦盡甘來</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>目不識丁</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
